--- a/flows/IBTF_fund_flow_data.xlsx
+++ b/flows/IBTF_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1014"/>
+  <dimension ref="A1:B1022"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10575,6 +10575,86 @@
         <v>4.64118</v>
       </c>
     </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1015" t="n">
+        <v>2.32199</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1016" t="n">
+        <v>2.32253</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1017" t="n">
+        <v>30.1262</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1018" t="n">
+        <v>2.31641</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1019" t="n">
+        <v>2.31777</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1020" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1021" t="n">
+        <v>8.116605</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1022" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
